--- a/data/cenarios_demo.xlsx
+++ b/data/cenarios_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasserranorocco/Documents/DemoApiAutomation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37750376-AF08-ED43-B042-63340FB0CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D03A460-A52C-DE4C-A5B0-CF398161AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7100" yWindow="3120" windowWidth="27840" windowHeight="16740" xr2:uid="{415C9C36-2B63-9848-BD0B-B660EAFFA638}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
